--- a/_site/assets/doc/2016-11-07-appendix-1.xlsx
+++ b/_site/assets/doc/2016-11-07-appendix-1.xlsx
@@ -491,9 +491,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -549,6 +546,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -856,7 +856,7 @@
   <dimension ref="A1:Y23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -896,78 +896,78 @@
     </row>
     <row r="4" spans="1:25" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="15"/>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="I4" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="18" t="s">
+      <c r="J4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="20" t="s">
+      <c r="K4" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="21"/>
-      <c r="M4" s="22" t="s">
+      <c r="L4" s="20"/>
+      <c r="M4" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="N4" s="22" t="s">
+      <c r="N4" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="O4" s="22" t="s">
+      <c r="O4" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P4" s="22" t="s">
+      <c r="P4" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="Q4" s="18" t="s">
+      <c r="Q4" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="R4" s="18" t="s">
+      <c r="R4" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="S4" s="23"/>
-      <c r="T4" s="18" t="s">
+      <c r="S4" s="22"/>
+      <c r="T4" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="U4" s="18" t="s">
+      <c r="U4" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="V4" s="22" t="s">
+      <c r="V4" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="W4" s="22" t="s">
+      <c r="W4" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="X4" s="18" t="s">
+      <c r="X4" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="Y4" s="24" t="s">
+      <c r="Y4" s="23" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
-      <c r="B5" s="25">
+      <c r="A5" s="39"/>
+      <c r="B5" s="24">
         <v>1</v>
       </c>
       <c r="C5" s="6"/>
@@ -986,17 +986,17 @@
       <c r="P5" s="11"/>
       <c r="Q5" s="12"/>
       <c r="R5" s="4"/>
-      <c r="S5" s="26"/>
+      <c r="S5" s="25"/>
       <c r="T5" s="4"/>
       <c r="U5" s="4"/>
       <c r="V5" s="4"/>
       <c r="W5" s="4"/>
       <c r="X5" s="4"/>
-      <c r="Y5" s="27"/>
+      <c r="Y5" s="26"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
-      <c r="B6" s="25">
+      <c r="A6" s="39"/>
+      <c r="B6" s="24">
         <v>2</v>
       </c>
       <c r="C6" s="7"/>
@@ -1015,17 +1015,17 @@
       <c r="P6" s="11"/>
       <c r="Q6" s="12"/>
       <c r="R6" s="4"/>
-      <c r="S6" s="26"/>
+      <c r="S6" s="25"/>
       <c r="T6" s="4"/>
       <c r="U6" s="4"/>
       <c r="V6" s="4"/>
       <c r="W6" s="4"/>
       <c r="X6" s="4"/>
-      <c r="Y6" s="27"/>
+      <c r="Y6" s="26"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="25">
+      <c r="A7" s="39"/>
+      <c r="B7" s="24">
         <v>3</v>
       </c>
       <c r="C7" s="6"/>
@@ -1044,17 +1044,17 @@
       <c r="P7" s="11"/>
       <c r="Q7" s="12"/>
       <c r="R7" s="4"/>
-      <c r="S7" s="26"/>
+      <c r="S7" s="25"/>
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
       <c r="V7" s="4"/>
       <c r="W7" s="4"/>
       <c r="X7" s="4"/>
-      <c r="Y7" s="27"/>
+      <c r="Y7" s="26"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
-      <c r="B8" s="25">
+      <c r="A8" s="39"/>
+      <c r="B8" s="24">
         <v>4</v>
       </c>
       <c r="C8" s="7"/>
@@ -1073,17 +1073,17 @@
       <c r="P8" s="11"/>
       <c r="Q8" s="12"/>
       <c r="R8" s="4"/>
-      <c r="S8" s="26"/>
+      <c r="S8" s="25"/>
       <c r="T8" s="4"/>
       <c r="U8" s="4"/>
       <c r="V8" s="4"/>
       <c r="W8" s="4"/>
       <c r="X8" s="4"/>
-      <c r="Y8" s="27"/>
+      <c r="Y8" s="26"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
-      <c r="B9" s="25">
+      <c r="A9" s="39"/>
+      <c r="B9" s="24">
         <v>5</v>
       </c>
       <c r="C9" s="7"/>
@@ -1102,17 +1102,17 @@
       <c r="P9" s="11"/>
       <c r="Q9" s="12"/>
       <c r="R9" s="4"/>
-      <c r="S9" s="26"/>
+      <c r="S9" s="25"/>
       <c r="T9" s="4"/>
       <c r="U9" s="4"/>
       <c r="V9" s="4"/>
       <c r="W9" s="4"/>
       <c r="X9" s="4"/>
-      <c r="Y9" s="27"/>
+      <c r="Y9" s="26"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
-      <c r="B10" s="25">
+      <c r="A10" s="39"/>
+      <c r="B10" s="24">
         <v>6</v>
       </c>
       <c r="C10" s="7"/>
@@ -1131,17 +1131,17 @@
       <c r="P10" s="11"/>
       <c r="Q10" s="12"/>
       <c r="R10" s="4"/>
-      <c r="S10" s="26"/>
+      <c r="S10" s="25"/>
       <c r="T10" s="4"/>
       <c r="U10" s="4"/>
       <c r="V10" s="4"/>
       <c r="W10" s="4"/>
       <c r="X10" s="4"/>
-      <c r="Y10" s="27"/>
+      <c r="Y10" s="26"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
-      <c r="B11" s="25">
+      <c r="A11" s="39"/>
+      <c r="B11" s="24">
         <v>7</v>
       </c>
       <c r="C11" s="7"/>
@@ -1160,17 +1160,17 @@
       <c r="P11" s="11"/>
       <c r="Q11" s="12"/>
       <c r="R11" s="4"/>
-      <c r="S11" s="26"/>
+      <c r="S11" s="25"/>
       <c r="T11" s="4"/>
       <c r="U11" s="4"/>
       <c r="V11" s="4"/>
       <c r="W11" s="4"/>
       <c r="X11" s="4"/>
-      <c r="Y11" s="27"/>
+      <c r="Y11" s="26"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
-      <c r="B12" s="25">
+      <c r="A12" s="39"/>
+      <c r="B12" s="24">
         <v>8</v>
       </c>
       <c r="C12" s="7"/>
@@ -1189,17 +1189,17 @@
       <c r="P12" s="11"/>
       <c r="Q12" s="12"/>
       <c r="R12" s="4"/>
-      <c r="S12" s="26"/>
+      <c r="S12" s="25"/>
       <c r="T12" s="4"/>
       <c r="U12" s="4"/>
       <c r="V12" s="4"/>
       <c r="W12" s="4"/>
       <c r="X12" s="4"/>
-      <c r="Y12" s="27"/>
+      <c r="Y12" s="26"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
-      <c r="B13" s="25">
+      <c r="A13" s="39"/>
+      <c r="B13" s="24">
         <v>9</v>
       </c>
       <c r="C13" s="7"/>
@@ -1218,17 +1218,17 @@
       <c r="P13" s="11"/>
       <c r="Q13" s="12"/>
       <c r="R13" s="4"/>
-      <c r="S13" s="26"/>
+      <c r="S13" s="25"/>
       <c r="T13" s="4"/>
       <c r="U13" s="4"/>
       <c r="V13" s="4"/>
       <c r="W13" s="4"/>
       <c r="X13" s="4"/>
-      <c r="Y13" s="27"/>
+      <c r="Y13" s="26"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
-      <c r="B14" s="25">
+      <c r="A14" s="39"/>
+      <c r="B14" s="24">
         <v>10</v>
       </c>
       <c r="C14" s="7"/>
@@ -1247,17 +1247,17 @@
       <c r="P14" s="11"/>
       <c r="Q14" s="12"/>
       <c r="R14" s="4"/>
-      <c r="S14" s="26"/>
+      <c r="S14" s="25"/>
       <c r="T14" s="4"/>
       <c r="U14" s="4"/>
       <c r="V14" s="4"/>
       <c r="W14" s="4"/>
       <c r="X14" s="4"/>
-      <c r="Y14" s="27"/>
+      <c r="Y14" s="26"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
-      <c r="B15" s="25">
+      <c r="A15" s="39"/>
+      <c r="B15" s="24">
         <v>11</v>
       </c>
       <c r="C15" s="7"/>
@@ -1276,17 +1276,17 @@
       <c r="P15" s="11"/>
       <c r="Q15" s="12"/>
       <c r="R15" s="4"/>
-      <c r="S15" s="26"/>
+      <c r="S15" s="25"/>
       <c r="T15" s="4"/>
       <c r="U15" s="4"/>
       <c r="V15" s="4"/>
       <c r="W15" s="4"/>
       <c r="X15" s="4"/>
-      <c r="Y15" s="27"/>
+      <c r="Y15" s="26"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
-      <c r="B16" s="25">
+      <c r="A16" s="39"/>
+      <c r="B16" s="24">
         <v>12</v>
       </c>
       <c r="C16" s="7"/>
@@ -1305,17 +1305,17 @@
       <c r="P16" s="11"/>
       <c r="Q16" s="12"/>
       <c r="R16" s="4"/>
-      <c r="S16" s="26"/>
+      <c r="S16" s="25"/>
       <c r="T16" s="4"/>
       <c r="U16" s="4"/>
       <c r="V16" s="4"/>
       <c r="W16" s="4"/>
       <c r="X16" s="4"/>
-      <c r="Y16" s="27"/>
+      <c r="Y16" s="26"/>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
-      <c r="B17" s="25">
+      <c r="A17" s="39"/>
+      <c r="B17" s="24">
         <v>13</v>
       </c>
       <c r="C17" s="7"/>
@@ -1334,17 +1334,17 @@
       <c r="P17" s="11"/>
       <c r="Q17" s="12"/>
       <c r="R17" s="4"/>
-      <c r="S17" s="26"/>
+      <c r="S17" s="25"/>
       <c r="T17" s="4"/>
       <c r="U17" s="4"/>
       <c r="V17" s="4"/>
       <c r="W17" s="4"/>
       <c r="X17" s="4"/>
-      <c r="Y17" s="27"/>
+      <c r="Y17" s="26"/>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
-      <c r="B18" s="25">
+      <c r="A18" s="39"/>
+      <c r="B18" s="24">
         <v>14</v>
       </c>
       <c r="C18" s="7"/>
@@ -1363,42 +1363,42 @@
       <c r="P18" s="11"/>
       <c r="Q18" s="12"/>
       <c r="R18" s="4"/>
-      <c r="S18" s="26"/>
+      <c r="S18" s="25"/>
       <c r="T18" s="4"/>
       <c r="U18" s="4"/>
       <c r="V18" s="4"/>
       <c r="W18" s="4"/>
       <c r="X18" s="4"/>
-      <c r="Y18" s="27"/>
+      <c r="Y18" s="26"/>
     </row>
     <row r="19" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="16"/>
-      <c r="B19" s="28">
+      <c r="A19" s="39"/>
+      <c r="B19" s="27">
         <v>15</v>
       </c>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="33"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="35"/>
-      <c r="N19" s="35"/>
-      <c r="O19" s="36"/>
-      <c r="P19" s="36"/>
-      <c r="Q19" s="30"/>
-      <c r="R19" s="37"/>
-      <c r="S19" s="38"/>
-      <c r="T19" s="37"/>
-      <c r="U19" s="37"/>
-      <c r="V19" s="37"/>
-      <c r="W19" s="37"/>
-      <c r="X19" s="37"/>
-      <c r="Y19" s="39"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="34"/>
+      <c r="N19" s="34"/>
+      <c r="O19" s="35"/>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="29"/>
+      <c r="R19" s="36"/>
+      <c r="S19" s="37"/>
+      <c r="T19" s="36"/>
+      <c r="U19" s="36"/>
+      <c r="V19" s="36"/>
+      <c r="W19" s="36"/>
+      <c r="X19" s="36"/>
+      <c r="Y19" s="38"/>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
@@ -1433,13 +1433,13 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
-      <formula1>"13-Jan-2017, 14-Jan-2017"</formula1>
+      <formula1>"12-Jan-2017, 13-Jan-2017"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3">
       <formula1>"Beijing, Dezhou"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
-      <formula1>"BJTU, HKU, Israel, Istanbul, JIA+, Montreal, NJFT, SCUT-POLITO, SEU-TUBS, Shunya, SIE, SJTUIUC, Solar Offspring, SSA, SUES-XD, THU, TJU-TUD, Toronto, UNNC Alpha, XAUAT, Xi'an Mass, YI"</formula1>
+      <formula1>"BJTU, HKU, Israel, Istanbul, JIA+, Montreal, NJFT, SCUT-POLITO, SEU-TUBS, Shunya, SIE, SJTUIUC, Solar Offspring, SSA, SUES-XD, THU, TJU-TUD, UNNC Alpha, XAUAT, Xi'an Mass, YI, Purdue"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
